--- a/conservation_latest_data/PlotData.xlsx
+++ b/conservation_latest_data/PlotData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="8020" windowWidth="25600" windowHeight="16560" tabRatio="500"/>
+    <workbookView xWindow="120" yWindow="0" windowWidth="25360" windowHeight="15860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="testPlot.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="23">
   <si>
     <t>ScoreJS</t>
   </si>
@@ -81,13 +81,7 @@
     <t>Sum of Pairs benign</t>
   </si>
   <si>
-    <t>0.046834623</t>
-  </si>
-  <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>Conservation</t>
   </si>
   <si>
     <t>Y</t>
@@ -100,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,6 +114,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -148,7 +149,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -198,12 +199,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="61">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -228,6 +243,12 @@
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -252,6 +273,12 @@
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -584,7 +611,7 @@
   <dimension ref="A1:N370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -608,13 +635,13 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -764,10 +791,10 @@
         <v>8.2644999999999996E-2</v>
       </c>
       <c r="M5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -805,10 +832,10 @@
         <v>9.0500000000000008E-3</v>
       </c>
       <c r="M6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -4470,8 +4497,8 @@
       <c r="F111" t="s">
         <v>13</v>
       </c>
-      <c r="G111" t="s">
-        <v>20</v>
+      <c r="G111" s="2">
+        <v>0.40758663000000001</v>
       </c>
       <c r="H111">
         <v>6</v>
@@ -4505,8 +4532,8 @@
       <c r="F112" t="s">
         <v>13</v>
       </c>
-      <c r="G112">
-        <v>0.40758663000000001</v>
+      <c r="G112" s="2">
+        <v>2.3081694999999999E-2</v>
       </c>
       <c r="H112">
         <v>4</v>
@@ -4540,8 +4567,8 @@
       <c r="F113" t="s">
         <v>13</v>
       </c>
-      <c r="G113">
-        <v>2.3081694999999999E-2</v>
+      <c r="G113" s="2">
+        <v>0.25456310300000001</v>
       </c>
       <c r="H113">
         <v>10</v>
@@ -4575,8 +4602,8 @@
       <c r="F114" t="s">
         <v>13</v>
       </c>
-      <c r="G114">
-        <v>0.25456310300000001</v>
+      <c r="G114" s="2">
+        <v>2.1699498000000001E-2</v>
       </c>
       <c r="H114">
         <v>6</v>
@@ -4610,8 +4637,8 @@
       <c r="F115" t="s">
         <v>13</v>
       </c>
-      <c r="G115">
-        <v>2.1699498000000001E-2</v>
+      <c r="G115" s="2">
+        <v>0.36976576799999999</v>
       </c>
       <c r="H115">
         <v>5</v>
@@ -4645,9 +4672,8 @@
       <c r="F116" t="s">
         <v>13</v>
       </c>
-      <c r="G116">
-        <f t="shared" ref="G116:G120" si="0">AVERAGE(A116,C116,E116)</f>
-        <v>1.4629155553333331</v>
+      <c r="G116" s="2">
+        <v>0.36976576799999999</v>
       </c>
       <c r="H116">
         <v>4</v>
@@ -4681,9 +4707,8 @@
       <c r="F117" t="s">
         <v>13</v>
       </c>
-      <c r="G117">
-        <f t="shared" si="0"/>
-        <v>1.2386595033333334</v>
+      <c r="G117" s="2">
+        <v>9.8211300000000001E-2</v>
       </c>
       <c r="H117">
         <v>57</v>
@@ -4717,9 +4742,8 @@
       <c r="F118" t="s">
         <v>13</v>
       </c>
-      <c r="G118">
-        <f t="shared" si="0"/>
-        <v>1.6379079203333333</v>
+      <c r="G118" s="2">
+        <v>1.2840452E-2</v>
       </c>
       <c r="H118">
         <v>14</v>
@@ -4753,9 +4777,8 @@
       <c r="F119" t="s">
         <v>13</v>
       </c>
-      <c r="G119">
-        <f t="shared" si="0"/>
-        <v>1.2774988309999999</v>
+      <c r="G119" s="2">
+        <v>2.0283000000000001E-4</v>
       </c>
       <c r="H119">
         <v>16</v>
@@ -4789,9 +4812,8 @@
       <c r="F120" t="s">
         <v>13</v>
       </c>
-      <c r="G120">
-        <f t="shared" si="0"/>
-        <v>1.1455560736666668</v>
+      <c r="G120" s="2">
+        <v>0.34772246899999998</v>
       </c>
       <c r="H120">
         <v>4</v>
